--- a/SchematicAndPCB/UWMD-BuildBOM.xlsx
+++ b/SchematicAndPCB/UWMD-BuildBOM.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="320">
   <si>
     <t>Part</t>
   </si>
@@ -976,6 +976,27 @@
   </si>
   <si>
     <t>10k5</t>
+  </si>
+  <si>
+    <t>Wire</t>
+  </si>
+  <si>
+    <t>Radioshack</t>
+  </si>
+  <si>
+    <t>278-1345</t>
+  </si>
+  <si>
+    <t>850mAh LiPo 3.7V Battery</t>
+  </si>
+  <si>
+    <t>SFE LiPo Boost Charger Circuit</t>
+  </si>
+  <si>
+    <t>Sparkfun Redboard Arduino Uno</t>
+  </si>
+  <si>
+    <t>PCB Assembly Service</t>
   </si>
 </sst>
 </file>
@@ -2941,10 +2962,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="570" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="570" topLeftCell="A28" activePane="bottomLeft"/>
       <selection sqref="A1:A1048576"/>
-      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4070,7 +4091,7 @@
       <c r="D32" t="s">
         <v>226</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>280</v>
       </c>
       <c r="H32" t="s">
@@ -4100,6 +4121,9 @@
         <v>227</v>
       </c>
       <c r="F33" t="s">
+        <v>317</v>
+      </c>
+      <c r="G33" t="s">
         <v>280</v>
       </c>
       <c r="H33" t="s">
@@ -4126,6 +4150,9 @@
         <v>228</v>
       </c>
       <c r="F34" t="s">
+        <v>316</v>
+      </c>
+      <c r="G34" t="s">
         <v>280</v>
       </c>
       <c r="H34" t="s">
@@ -4152,6 +4179,9 @@
         <v>229</v>
       </c>
       <c r="F35" t="s">
+        <v>318</v>
+      </c>
+      <c r="G35" t="s">
         <v>280</v>
       </c>
       <c r="H35" t="s">
@@ -4178,6 +4208,9 @@
         <v>237</v>
       </c>
       <c r="F36" t="s">
+        <v>319</v>
+      </c>
+      <c r="G36" t="s">
         <v>280</v>
       </c>
       <c r="H36" t="s">
@@ -4189,6 +4222,23 @@
       <c r="L36">
         <f t="shared" si="0"/>
         <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>313</v>
+      </c>
+      <c r="G37" t="s">
+        <v>280</v>
+      </c>
+      <c r="H37" t="s">
+        <v>314</v>
+      </c>
+      <c r="I37" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
